--- a/biology/Médecine/Plan_particulier_de_sécurité_et_de_protection_de_la_santé_(France)/Plan_particulier_de_sécurité_et_de_protection_de_la_santé_(France).xlsx
+++ b/biology/Médecine/Plan_particulier_de_sécurité_et_de_protection_de_la_santé_(France)/Plan_particulier_de_sécurité_et_de_protection_de_la_santé_(France).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Plan_particulier_de_s%C3%A9curit%C3%A9_et_de_protection_de_la_sant%C3%A9_(France)</t>
+          <t>Plan_particulier_de_sécurité_et_de_protection_de_la_santé_(France)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le plan particulier de sécurité et de protection de la santé (PPSPS) est réalisé par les entreprises travaillant sur un chantier ; il est remis au Coordonnateur de sécurité et de protection de la santé (Coordonnateur SPS) après la visite d'inspection commune. Il intègre entre autres la prise en compte des dispositions générales de la coordination et des installations prévues contenues dans le plan général de coordination de sécurité et de protection de la santé (PGCSPS).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Plan_particulier_de_s%C3%A9curit%C3%A9_et_de_protection_de_la_sant%C3%A9_(France)</t>
+          <t>Plan_particulier_de_sécurité_et_de_protection_de_la_santé_(France)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Obligations réglementaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les conditions de réalisation du PPSPS sont définies dans les articles R4532-56 à R4532-74[1] du code du travail
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les conditions de réalisation du PPSPS sont définies dans les articles R4532-56 à R4532-74 du code du travail
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Plan_particulier_de_s%C3%A9curit%C3%A9_et_de_protection_de_la_sant%C3%A9_(France)</t>
+          <t>Plan_particulier_de_sécurité_et_de_protection_de_la_santé_(France)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Contenu des PPSPS</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le PPSPS de chaque entreprise intervenante décrit :
 L'organisation du chantier,
